--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58527391419e295a/Desktop/08 Other Projects/NESS Statathon 2022/Theme 1 Customer Retention/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58527391419e295a/Desktop/08 Other Projects/NESS Statathon 2022/Theme 1 Customer Retention/GitHub Repo/NESS-Statathon-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC104864395E6DD25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6109BDD4-65DB-4EE8-A6E3-2EF2E70B0090}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC104864395E6DD25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E1B531-D4CA-45D8-B5E5-72C1E4F139B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>zip code</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>house color</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -201,14 +191,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -223,7 +213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3535680" y="2286000"/>
+          <a:off x="2926080" y="2606040"/>
           <a:ext cx="1638300" cy="1623060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -449,16 +439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -470,16 +460,16 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
+          <a:stCxn id="2" idx="2"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2933700" y="2202180"/>
-          <a:ext cx="601980" cy="895350"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2026920" y="2518410"/>
+          <a:ext cx="377190" cy="1421130"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -506,15 +496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -529,12 +519,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5356860" y="1386840"/>
-          <a:ext cx="1242060" cy="1005840"/>
+          <a:off x="5433060" y="1386840"/>
+          <a:ext cx="1104900" cy="922020"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -598,6 +591,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -616,12 +612,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
             <a:t>0</a:t>
           </a:r>
         </a:p>
@@ -661,6 +657,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -679,12 +678,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
             <a:t>1</a:t>
           </a:r>
         </a:p>
@@ -695,15 +694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -718,12 +717,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6827520" y="2225040"/>
+          <a:off x="6819900" y="2125980"/>
           <a:ext cx="525780" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -742,12 +744,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
             <a:t>2</a:t>
           </a:r>
         </a:p>
@@ -1021,30 +1023,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B22:B24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
